--- a/redistribution_log.xlsx
+++ b/redistribution_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1189,6 +1189,114 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:20:40</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ACC1000</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Sarah Lee</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Linda Johnson</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>AI Redistribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:20:40</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ACC1001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Sarah Lee</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Priya Patel</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>AI Redistribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:20:40</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ACC1009</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Sarah Lee</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Olivia Garcia</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>AI Redistribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:20:40</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ACC1052</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Sarah Lee</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Michael Chen</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>AI Redistribution</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/redistribution_log.xlsx
+++ b/redistribution_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,6 +1297,573 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:28:31</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ACC1000</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Linda Johnson</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>James Miller</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>AI Redistribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:28:31</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ACC1005</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Linda Johnson</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Michael Chen</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>AI Redistribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:28:31</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ACC1054</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Linda Johnson</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>James Miller</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>AI Redistribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:28:31</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ACC1056</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Linda Johnson</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Olivia Garcia</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>AI Redistribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:28:31</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ACC1058</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Linda Johnson</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Priya Patel</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>AI Redistribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:28:31</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ACC1059</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Linda Johnson</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Priya Patel</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>AI Redistribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:28:31</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ACC1060</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Linda Johnson</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>David Brown</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>AI Redistribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:28:31</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ACC1061</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Linda Johnson</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Michael Chen</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>AI Redistribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:28:31</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ACC1062</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Linda Johnson</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Michael Chen</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>AI Redistribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:41:40</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ACC1000</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>James Miller</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Michael Chen</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>AI Redistribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:41:40</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ACC1007</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>James Miller</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>David Brown</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>AI Redistribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:41:40</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ACC1012</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>James Miller</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>AI Redistribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:41:40</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ACC1054</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>James Miller</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Priya Patel</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>AI Redistribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:41:40</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ACC1057</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>James Miller</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Michael Chen</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>AI Redistribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:41:40</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ACC1063</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>James Miller</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>AI Redistribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:41:40</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ACC1064</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>James Miller</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>David Brown</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>AI Redistribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:41:40</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ACC1065</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>James Miller</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Priya Patel</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>AI Redistribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:41:40</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ACC1066</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>James Miller</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Michael Chen</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>AI Redistribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:41:40</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ACC1067</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>James Miller</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Michael Chen</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>AI Redistribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-08-22 10:41:40</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ACC1068</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>James Miller</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Priya Patel</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>AI Redistribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-08-22 11:02:33</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>NEW1075</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Olivia_75 Garcia</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Priya_37 Patel</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>AI Redistribution</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/redistribution_log.xlsx
+++ b/redistribution_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1864,6 +1864,33 @@
         </is>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-08-22 11:24:07</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>NEW1001</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Priya_1 Patel</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Michael_61 Chen</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>AI Redistribution</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
